--- a/output/planilhas/leilaoimoveis_maracanau-ce.xlsx
+++ b/output/planilhas/leilaoimoveis_maracanau-ce.xlsx
@@ -538,7 +538,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -586,15 +586,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16720</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q2" t="n">
+        <v>16720</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -610,7 +606,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -650,7 +646,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -658,10 +654,8 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>5068</t>
-        </is>
+      <c r="Q3" t="n">
+        <v>5068</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -680,7 +674,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -718,7 +712,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -726,10 +720,8 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>8763</t>
-        </is>
+      <c r="Q4" t="n">
+        <v>8763</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -748,7 +740,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -786,7 +778,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -794,10 +786,8 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>16440</t>
-        </is>
+      <c r="Q5" t="n">
+        <v>16440</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -816,7 +806,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -854,7 +844,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -862,10 +852,8 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>14769</t>
-        </is>
+      <c r="Q6" t="n">
+        <v>14769</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -884,7 +872,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -924,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>VendaOnlineCaixa</t>
+          <t>Venda Online Caixa</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -933,15 +921,11 @@
 </t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>5114</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>220175</t>
-        </is>
+      <c r="Q7" t="n">
+        <v>5114</v>
+      </c>
+      <c r="R7" t="n">
+        <v>220175</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -957,7 +941,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -997,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>VendaOnlineCaixa</t>
+          <t>Venda Online Caixa</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1006,15 +990,11 @@
 </t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>5008</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>221998</t>
-        </is>
+      <c r="Q8" t="n">
+        <v>5008</v>
+      </c>
+      <c r="R8" t="n">
+        <v>221998</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1030,7 +1010,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1070,7 +1050,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>VendaOnlineCaixa</t>
+          <t>Venda Online Caixa</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1079,15 +1059,11 @@
 </t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>15297</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0000222844</t>
-        </is>
+      <c r="Q9" t="n">
+        <v>15297</v>
+      </c>
+      <c r="R9" t="n">
+        <v>222844</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1103,7 +1079,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1141,7 +1117,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>VendaOnlineCaixa</t>
+          <t>Venda Online Caixa</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1150,15 +1126,11 @@
 </t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>14980</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>224969</t>
-        </is>
+      <c r="Q10" t="n">
+        <v>14980</v>
+      </c>
+      <c r="R10" t="n">
+        <v>224969</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1174,7 +1146,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1208,7 +1180,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1217,15 +1189,11 @@
 </t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>10788</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>3636062018400000</t>
-        </is>
+      <c r="Q11" t="n">
+        <v>10788</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3636062018400000</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1241,7 +1209,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1275,7 +1243,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1284,15 +1252,11 @@
 </t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>9127</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>000219031</t>
-        </is>
+      <c r="Q12" t="n">
+        <v>9127</v>
+      </c>
+      <c r="R12" t="n">
+        <v>219031</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1308,7 +1272,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1336,7 +1300,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1358,7 +1322,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1420,7 +1384,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1480,7 +1444,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1540,7 +1504,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1600,7 +1564,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1630,7 +1594,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1638,15 +1602,11 @@
           <t xml:space="preserve"> Leilões Brasil </t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>13612</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q18" t="n">
+        <v>13612</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -1662,7 +1622,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1722,7 +1682,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1778,7 +1738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1802,7 +1762,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1810,15 +1770,11 @@
           <t xml:space="preserve"> HD Leilões </t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>3976</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q21" t="n">
+        <v>3976</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -1834,7 +1790,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1866,7 +1822,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1874,15 +1830,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>13754</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q22" t="n">
+        <v>13754</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -1898,7 +1850,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1930,7 +1882,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1938,15 +1890,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>13754</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q23" t="n">
+        <v>13754</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -1962,7 +1910,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1994,7 +1942,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2020,7 +1968,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2050,7 +1998,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
